--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -453,408 +453,408 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Agent 0 (TitForTat)</t>
+          <t>Agent 0 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Agent 1 (ForgivingTitForTat)</t>
+          <t>Agent 1 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agent 2 (AlwaysDefect)</t>
+          <t>Agent 2 (TitForTat)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Agent 3 (Random)</t>
+          <t>Agent 3 (TitForTat)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Agent 4 (GrimTrigger)</t>
+          <t>Agent 4 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C']</t>
+          <t>['D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Agent 5 (HardTitForTat)</t>
+          <t>Agent 5 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Agent 6 (TitForTat)</t>
+          <t>Agent 6 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agent 7 (ForgivingTitForTat)</t>
+          <t>Agent 7 (Random)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Agent 8 (AlwaysCooperate)</t>
+          <t>Agent 8 (Pavlov)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Agent 9 (TitForTwoTats)</t>
+          <t>Agent 9 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Agent 10 (TitForTwoTats)</t>
+          <t>Agent 10 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D']</t>
+          <t>['D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Agent 11 (AlwaysCooperate)</t>
+          <t>Agent 11 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Agent 12 (AlwaysCooperate)</t>
+          <t>Agent 12 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Agent 13 (AlwaysCooperate)</t>
+          <t>Agent 13 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Agent 14 (AlwaysCooperate)</t>
+          <t>Agent 14 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D']</t>
+          <t>['D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Agent 15 (HardTitForTat)</t>
+          <t>Agent 15 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Agent 16 (ForgivingTitForTat)</t>
+          <t>Agent 16 (TitForTat)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Agent 17 (ForgivingTitForTat)</t>
+          <t>Agent 17 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Agent 18 (AlwaysCooperate)</t>
+          <t>Agent 18 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Agent 19 (TitForTwoTats)</t>
+          <t>Agent 19 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Agent 20 (GenerousTitForTat)</t>
+          <t>Agent 20 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Agent 21 (AlwaysDefect)</t>
+          <t>Agent 21 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Agent 22 (AlwaysCooperate)</t>
+          <t>Agent 22 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Agent 23 (GenerousTitForTat)</t>
+          <t>Agent 23 (Pavlov)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
@@ -871,245 +871,245 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Agent 25 (AlwaysCooperate)</t>
+          <t>Agent 25 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Agent 26 (GenerousTitForTat)</t>
+          <t>Agent 26 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Agent 27 (AlwaysCooperate)</t>
+          <t>Agent 27 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Agent 28 (GenerousTitForTat)</t>
+          <t>Agent 28 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D']</t>
+          <t>['D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Agent 29 (TitForTat)</t>
+          <t>Agent 29 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Agent 30 (AlwaysDefect)</t>
+          <t>Agent 30 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Agent 31 (Random)</t>
+          <t>Agent 31 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Agent 32 (GenerousTitForTat)</t>
+          <t>Agent 32 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Agent 33 (AlwaysDefect)</t>
+          <t>Agent 33 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Agent 34 (TitForTwoTats)</t>
+          <t>Agent 34 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Agent 35 (GrimTrigger)</t>
+          <t>Agent 35 (TitForTat)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Agent 36 (Pavlov)</t>
+          <t>Agent 36 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pavlov</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Agent 37 (Pavlov)</t>
+          <t>Agent 37 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pavlov</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Agent 38 (AlwaysCooperate)</t>
+          <t>Agent 38 (Pavlov)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
@@ -1126,347 +1126,347 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Agent 40 (AlwaysDefect)</t>
+          <t>Agent 40 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Agent 41 (ForgivingTitForTat)</t>
+          <t>Agent 41 (Pavlov)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Agent 42 (GrimTrigger)</t>
+          <t>Agent 42 (Pavlov)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Agent 43 (GrimTrigger)</t>
+          <t>Agent 43 (TitForTat)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Agent 44 (ForgivingTitForTat)</t>
+          <t>Agent 44 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Agent 45 (GrimTrigger)</t>
+          <t>Agent 45 (TitForTat)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Agent 46 (HardTitForTat)</t>
+          <t>Agent 46 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Agent 47 (TitForTat)</t>
+          <t>Agent 47 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Agent 48 (AlwaysDefect)</t>
+          <t>Agent 48 (Random)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Agent 49 (GenerousTitForTat)</t>
+          <t>Agent 49 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Agent 50 (GrimTrigger)</t>
+          <t>Agent 50 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Agent 51 (TitForTat)</t>
+          <t>Agent 51 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Agent 52 (TitForTwoTats)</t>
+          <t>Agent 52 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Agent 53 (TitForTat)</t>
+          <t>Agent 53 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Agent 54 (TitForTwoTats)</t>
+          <t>Agent 54 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Agent 55 (Pavlov)</t>
+          <t>Agent 55 (Random)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pavlov</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Agent 56 (GrimTrigger)</t>
+          <t>Agent 56 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Agent 57 (ForgivingTitForTat)</t>
+          <t>Agent 57 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Agent 58 (ForgivingTitForTat)</t>
+          <t>Agent 58 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Agent 59 (TitForTwoTats)</t>
+          <t>Agent 59 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
@@ -1483,109 +1483,109 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Agent 61 (AlwaysDefect)</t>
+          <t>Agent 61 (Random)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>AlwaysDefect</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Agent 62 (TitForTat)</t>
+          <t>Agent 62 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D']</t>
+          <t>['C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Agent 63 (GenerousTitForTat)</t>
+          <t>Agent 63 (TitForTat)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Agent 64 (AlwaysCooperate)</t>
+          <t>Agent 64 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AlwaysCooperate</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Agent 65 (GenerousTitForTat)</t>
+          <t>Agent 65 (AlwaysCooperate)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>AlwaysCooperate</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Agent 66 (Random)</t>
+          <t>Agent 66 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
@@ -1636,75 +1636,75 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Agent 70 (TitForTat)</t>
+          <t>Agent 70 (Random)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Agent 71 (Pavlov)</t>
+          <t>Agent 71 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pavlov</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Agent 72 (ForgivingTitForTat)</t>
+          <t>Agent 72 (TitForTat)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>TitForTat</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>['C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Agent 73 (Pavlov)</t>
+          <t>Agent 73 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pavlov</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
@@ -1721,313 +1721,313 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Agent 75 (TitForTwoTats)</t>
+          <t>Agent 75 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Agent 76 (ForgivingTitForTat)</t>
+          <t>Agent 76 (GenerousTitForTat)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>GenerousTitForTat</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C']</t>
+          <t>['C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Agent 77 (GrimTrigger)</t>
+          <t>Agent 77 (TitForTwoTats)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>TitForTwoTats</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Agent 78 (GenerousTitForTat)</t>
+          <t>Agent 78 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Agent 79 (TitForTat)</t>
+          <t>Agent 79 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TitForTat</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Agent 80 (HardTitForTat)</t>
+          <t>Agent 80 (Random)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C']</t>
+          <t>['D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Agent 81 (GrimTrigger)</t>
+          <t>Agent 81 (Random)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Agent 82 (HardTitForTat)</t>
+          <t>Agent 82 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Agent 83 (HardTitForTat)</t>
+          <t>Agent 83 (Random)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>Random</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Agent 84 (ForgivingTitForTat)</t>
+          <t>Agent 84 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Agent 85 (TitForTwoTats)</t>
+          <t>Agent 85 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Agent 86 (HardTitForTat)</t>
+          <t>Agent 86 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Agent 87 (HardTitForTat)</t>
+          <t>Agent 87 (Pavlov)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>HardTitForTat</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C']</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Agent 88 (TitForTwoTats)</t>
+          <t>Agent 88 (Pavlov)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Agent 89 (Random)</t>
+          <t>Agent 89 (GrimTrigger)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Random</t>
+          <t>GrimTrigger</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Agent 90 (GrimTrigger)</t>
+          <t>Agent 90 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Agent 91 (GenerousTitForTat)</t>
+          <t>Agent 91 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Agent 92 (GenerousTitForTat)</t>
+          <t>Agent 92 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GenerousTitForTat</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
@@ -2044,58 +2044,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Agent 94 (ForgivingTitForTat)</t>
+          <t>Agent 94 (AlwaysDefect)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ForgivingTitForTat</t>
+          <t>AlwaysDefect</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Agent 95 (GrimTrigger)</t>
+          <t>Agent 95 (HardTitForTat)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GrimTrigger</t>
+          <t>HardTitForTat</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C']</t>
+          <t>['C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Agent 96 (TitForTwoTats)</t>
+          <t>Agent 96 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C']</t>
         </is>
       </c>
     </row>
@@ -2112,41 +2112,41 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C']</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Agent 98 (TitForTwoTats)</t>
+          <t>Agent 98 (Pavlov)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>Pavlov</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'D', 'C']</t>
+          <t>['C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'D', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'C', 'D', 'C', 'C', 'C', 'D', 'C', 'C', 'C', 'C', 'C', 'D', 'D', 'C', 'D', 'C', 'C', 'D', 'C', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'D', 'C', 'C', 'D']</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Agent 99 (TitForTwoTats)</t>
+          <t>Agent 99 (ForgivingTitForTat)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TitForTwoTats</t>
+          <t>ForgivingTitForTat</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
+          <t>['C', 'C', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D', 'D']</t>
         </is>
       </c>
     </row>
